--- a/P2/task_analysis.xlsx
+++ b/P2/task_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f1d9fa91ebdde79/Documentos/Universidad/3IngInf/SEGUNDO_CUATRI/DIU/Prácticas/DIU/P2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4D2F04E46CFB4ACB3E20EDD515C52C683EDF15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0AD6D25-FDF1-4169-97F0-386E4A0190D5}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_AD4D2F04E46CFB4ACB3E20EDD515C52C683EDF15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8D20AD7-C41B-47C4-BFF8-E8836AC38DAF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="1460" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,25 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Recomendación de Libros</t>
-  </si>
-  <si>
-    <t>Lectura conjunta</t>
-  </si>
-  <si>
-    <t>Talleres para niños</t>
-  </si>
-  <si>
-    <t>Entrevistas a autores</t>
-  </si>
-  <si>
-    <t>Blog de reseñas</t>
-  </si>
-  <si>
-    <t>Niños</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>Adolescentes</t>
   </si>
@@ -54,21 +36,56 @@
     <t>Adultos</t>
   </si>
   <si>
-    <t>Teatros para niños</t>
-  </si>
-  <si>
-    <t>Talleres para adultos</t>
-  </si>
-  <si>
-    <t>Eventos</t>
+    <t>H</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Registrarse</t>
+  </si>
+  <si>
+    <t>Iniciar sesion</t>
+  </si>
+  <si>
+    <t>Leer publicacion del blog</t>
+  </si>
+  <si>
+    <t>Gestión de la membresía</t>
+  </si>
+  <si>
+    <t>Contacto y Soporte</t>
+  </si>
+  <si>
+    <t>Acceso a recursos adicionales</t>
+  </si>
+  <si>
+    <t>Participación en discusiones</t>
+  </si>
+  <si>
+    <t>Interacción Social</t>
+  </si>
+  <si>
+    <t>Inscripción a evento/actividad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,8 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,76 +397,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
     <col min="3" max="3" width="13.81640625" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" customWidth="1"/>
     <col min="5" max="5" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/P2/task_analysis.xlsx
+++ b/P2/task_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f1d9fa91ebdde79/Documentos/Universidad/3IngInf/SEGUNDO_CUATRI/DIU/Prácticas/DIU/P2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_AD4D2F04E46CFB4ACB3E20EDD515C52C683EDF15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8D20AD7-C41B-47C4-BFF8-E8836AC38DAF}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_AD4D2F04E46CFB4ACB3E20EDD515C52C683EDF15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE87F4AC-9CC5-46ED-BB70-80F07A49C97D}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1460" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +92,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,15 +146,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -400,19 +445,19 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -423,137 +468,137 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
   </sheetData>

--- a/P2/task_analysis.xlsx
+++ b/P2/task_analysis.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="23" documentId="11_AD4D2F04E46CFB4ACB3E20EDD515C52C683EDF15" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE87F4AC-9CC5-46ED-BB70-80F07A49C97D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21495" yWindow="4050" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
